--- a/Price_Study/US/Results/STRAWBERRIES/prices.xlsx
+++ b/Price_Study/US/Results/STRAWBERRIES/prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="7">
   <si>
     <t>Low Price</t>
   </si>
@@ -25,7 +25,16 @@
     <t>Avg Price</t>
   </si>
   <si>
+    <t>USDKg</t>
+  </si>
+  <si>
+    <t>Commodity</t>
+  </si>
+  <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>STRAWBERRIES</t>
   </si>
 </sst>
 </file>
@@ -389,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D428"/>
+  <dimension ref="A1:F429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -408,8 +417,14 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>42738</v>
       </c>
@@ -422,8 +437,14 @@
       <c r="D2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>2.617991498968236</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>42739</v>
       </c>
@@ -436,8 +457,14 @@
       <c r="D3">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>3.100253090883437</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>42740</v>
       </c>
@@ -450,8 +477,14 @@
       <c r="D4">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>3.100253090883437</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>42741</v>
       </c>
@@ -464,8 +497,14 @@
       <c r="D5">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>42744</v>
       </c>
@@ -478,8 +517,14 @@
       <c r="D6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>42745</v>
       </c>
@@ -492,8 +537,14 @@
       <c r="D7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>42746</v>
       </c>
@@ -506,8 +557,14 @@
       <c r="D8">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>42747</v>
       </c>
@@ -520,8 +577,14 @@
       <c r="D9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>42748</v>
       </c>
@@ -534,8 +597,14 @@
       <c r="D10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>42752</v>
       </c>
@@ -548,8 +617,14 @@
       <c r="D11">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>42753</v>
       </c>
@@ -562,8 +637,14 @@
       <c r="D12">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>42754</v>
       </c>
@@ -576,8 +657,14 @@
       <c r="D13">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>42755</v>
       </c>
@@ -590,8 +677,14 @@
       <c r="D14">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>42758</v>
       </c>
@@ -604,8 +697,14 @@
       <c r="D15">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>42759</v>
       </c>
@@ -618,8 +717,14 @@
       <c r="D16">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>42760</v>
       </c>
@@ -632,8 +737,14 @@
       <c r="D17">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>42761</v>
       </c>
@@ -646,8 +757,14 @@
       <c r="D18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>42762</v>
       </c>
@@ -660,8 +777,14 @@
       <c r="D19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>42765</v>
       </c>
@@ -674,8 +797,14 @@
       <c r="D20">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>42766</v>
       </c>
@@ -688,8 +817,14 @@
       <c r="D21">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>42767</v>
       </c>
@@ -702,8 +837,14 @@
       <c r="D22">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>42768</v>
       </c>
@@ -716,8 +857,14 @@
       <c r="D23">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>42769</v>
       </c>
@@ -730,8 +877,14 @@
       <c r="D24">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>42772</v>
       </c>
@@ -744,8 +897,14 @@
       <c r="D25">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>42773</v>
       </c>
@@ -758,8 +917,14 @@
       <c r="D26">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>42774</v>
       </c>
@@ -772,8 +937,14 @@
       <c r="D27">
         <v>9.75</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>2.686886012098979</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>42775</v>
       </c>
@@ -786,8 +957,14 @@
       <c r="D28">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>2.617991498968236</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>42776</v>
       </c>
@@ -800,8 +977,14 @@
       <c r="D29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>42779</v>
       </c>
@@ -814,8 +997,14 @@
       <c r="D30">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>2.617991498968236</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>42780</v>
       </c>
@@ -828,8 +1017,14 @@
       <c r="D31">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>42781</v>
       </c>
@@ -842,8 +1037,14 @@
       <c r="D32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>42782</v>
       </c>
@@ -856,8 +1057,14 @@
       <c r="D33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>42783</v>
       </c>
@@ -870,8 +1077,14 @@
       <c r="D34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>42787</v>
       </c>
@@ -884,8 +1097,14 @@
       <c r="D35">
         <v>9.75</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>2.686886012098979</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>42788</v>
       </c>
@@ -898,8 +1117,14 @@
       <c r="D36">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>42789</v>
       </c>
@@ -912,8 +1137,14 @@
       <c r="D37">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>42790</v>
       </c>
@@ -926,8 +1157,14 @@
       <c r="D38">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>42793</v>
       </c>
@@ -940,8 +1177,14 @@
       <c r="D39">
         <v>11.75</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>3.238042117144923</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>42794</v>
       </c>
@@ -954,8 +1197,14 @@
       <c r="D40">
         <v>11.75</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>3.238042117144923</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>42795</v>
       </c>
@@ -968,8 +1217,14 @@
       <c r="D41">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>42796</v>
       </c>
@@ -982,8 +1237,14 @@
       <c r="D42">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>42797</v>
       </c>
@@ -996,8 +1257,14 @@
       <c r="D43">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>42800</v>
       </c>
@@ -1010,8 +1277,14 @@
       <c r="D44">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>42801</v>
       </c>
@@ -1024,8 +1297,14 @@
       <c r="D45">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>42802</v>
       </c>
@@ -1038,8 +1317,14 @@
       <c r="D46">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>42803</v>
       </c>
@@ -1052,8 +1337,14 @@
       <c r="D47">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>42804</v>
       </c>
@@ -1066,8 +1357,14 @@
       <c r="D48">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>42807</v>
       </c>
@@ -1080,8 +1377,14 @@
       <c r="D49">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>3.100253090883437</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>42808</v>
       </c>
@@ -1094,8 +1397,14 @@
       <c r="D50">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>3.100253090883437</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>42809</v>
       </c>
@@ -1108,8 +1417,14 @@
       <c r="D51">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>42810</v>
       </c>
@@ -1122,8 +1437,14 @@
       <c r="D52">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>42811</v>
       </c>
@@ -1136,8 +1457,14 @@
       <c r="D53">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>42814</v>
       </c>
@@ -1150,8 +1477,14 @@
       <c r="D54">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>42815</v>
       </c>
@@ -1164,8 +1497,14 @@
       <c r="D55">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>42816</v>
       </c>
@@ -1178,8 +1517,14 @@
       <c r="D56">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>42817</v>
       </c>
@@ -1192,8 +1537,14 @@
       <c r="D57">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>42818</v>
       </c>
@@ -1206,8 +1557,14 @@
       <c r="D58">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>42821</v>
       </c>
@@ -1220,8 +1577,14 @@
       <c r="D59">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <v>42822</v>
       </c>
@@ -1234,8 +1597,14 @@
       <c r="D60">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <v>42823</v>
       </c>
@@ -1248,8 +1617,14 @@
       <c r="D61">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
         <v>42824</v>
       </c>
@@ -1262,8 +1637,14 @@
       <c r="D62">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
         <v>42825</v>
       </c>
@@ -1276,8 +1657,14 @@
       <c r="D63">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
         <v>42828</v>
       </c>
@@ -1290,8 +1677,14 @@
       <c r="D64">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
         <v>42829</v>
       </c>
@@ -1304,8 +1697,14 @@
       <c r="D65">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
         <v>42830</v>
       </c>
@@ -1318,8 +1717,14 @@
       <c r="D66">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="2">
         <v>42831</v>
       </c>
@@ -1332,8 +1737,14 @@
       <c r="D67">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="2">
         <v>42832</v>
       </c>
@@ -1346,8 +1757,14 @@
       <c r="D68">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="2">
         <v>42835</v>
       </c>
@@ -1360,8 +1777,14 @@
       <c r="D69">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="2">
         <v>42836</v>
       </c>
@@ -1374,8 +1797,14 @@
       <c r="D70">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="2">
         <v>42837</v>
       </c>
@@ -1388,8 +1817,14 @@
       <c r="D71">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="2">
         <v>42838</v>
       </c>
@@ -1402,8 +1837,14 @@
       <c r="D72">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="2">
         <v>42839</v>
       </c>
@@ -1416,8 +1857,14 @@
       <c r="D73">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="2">
         <v>42842</v>
       </c>
@@ -1430,8 +1877,14 @@
       <c r="D74">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>2.066835393922291</v>
+      </c>
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="2">
         <v>42843</v>
       </c>
@@ -1444,8 +1897,14 @@
       <c r="D75">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>2.066835393922291</v>
+      </c>
+      <c r="F75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="2">
         <v>42844</v>
       </c>
@@ -1458,8 +1917,14 @@
       <c r="D76">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>2.066835393922291</v>
+      </c>
+      <c r="F76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="2">
         <v>42845</v>
       </c>
@@ -1472,8 +1937,14 @@
       <c r="D77">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>2.066835393922291</v>
+      </c>
+      <c r="F77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="2">
         <v>42846</v>
       </c>
@@ -1486,8 +1957,14 @@
       <c r="D78">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>2.066835393922291</v>
+      </c>
+      <c r="F78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="2">
         <v>43035</v>
       </c>
@@ -1500,8 +1977,14 @@
       <c r="D79">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="2">
         <v>43038</v>
       </c>
@@ -1514,8 +1997,14 @@
       <c r="D80">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="2">
         <v>43039</v>
       </c>
@@ -1528,8 +2017,14 @@
       <c r="D81">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="2">
         <v>43040</v>
       </c>
@@ -1542,8 +2037,14 @@
       <c r="D82">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="2">
         <v>43041</v>
       </c>
@@ -1556,8 +2057,14 @@
       <c r="D83">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="2">
         <v>43042</v>
       </c>
@@ -1570,8 +2077,14 @@
       <c r="D84">
         <v>15</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="2">
         <v>43045</v>
       </c>
@@ -1584,8 +2097,14 @@
       <c r="D85">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="2">
         <v>43046</v>
       </c>
@@ -1598,8 +2117,14 @@
       <c r="D86">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="2">
         <v>43047</v>
       </c>
@@ -1612,8 +2137,14 @@
       <c r="D87">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="2">
         <v>43048</v>
       </c>
@@ -1626,8 +2157,14 @@
       <c r="D88">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="2">
         <v>43052</v>
       </c>
@@ -1640,8 +2177,14 @@
       <c r="D89">
         <v>17</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89">
+        <v>4.684826892890527</v>
+      </c>
+      <c r="F89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="2">
         <v>43053</v>
       </c>
@@ -1654,8 +2197,14 @@
       <c r="D90">
         <v>18</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90">
+        <v>4.960404945413499</v>
+      </c>
+      <c r="F90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="2">
         <v>43054</v>
       </c>
@@ -1668,8 +2217,14 @@
       <c r="D91">
         <v>19</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91">
+        <v>5.235982997936472</v>
+      </c>
+      <c r="F91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="2">
         <v>43055</v>
       </c>
@@ -1682,8 +2237,14 @@
       <c r="D92">
         <v>19</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92">
+        <v>5.235982997936472</v>
+      </c>
+      <c r="F92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="2">
         <v>43056</v>
       </c>
@@ -1696,8 +2257,14 @@
       <c r="D93">
         <v>19</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93">
+        <v>5.235982997936472</v>
+      </c>
+      <c r="F93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="2">
         <v>43059</v>
       </c>
@@ -1710,8 +2277,14 @@
       <c r="D94">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94">
+        <v>5.64935007672093</v>
+      </c>
+      <c r="F94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="2">
         <v>43060</v>
       </c>
@@ -1724,8 +2297,14 @@
       <c r="D95">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95">
+        <v>5.64935007672093</v>
+      </c>
+      <c r="F95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="2">
         <v>43061</v>
       </c>
@@ -1738,8 +2317,14 @@
       <c r="D96">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>5.511561050459444</v>
+      </c>
+      <c r="F96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="2">
         <v>43063</v>
       </c>
@@ -1752,8 +2337,14 @@
       <c r="D97">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>5.511561050459444</v>
+      </c>
+      <c r="F97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="2">
         <v>43066</v>
       </c>
@@ -1766,8 +2357,14 @@
       <c r="D98">
         <v>18</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98">
+        <v>4.960404945413499</v>
+      </c>
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="2">
         <v>43067</v>
       </c>
@@ -1780,8 +2377,14 @@
       <c r="D99">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="2">
         <v>43068</v>
       </c>
@@ -1794,8 +2397,14 @@
       <c r="D100">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="2">
         <v>43069</v>
       </c>
@@ -1808,8 +2417,14 @@
       <c r="D101">
         <v>14</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="2">
         <v>43070</v>
       </c>
@@ -1822,8 +2437,14 @@
       <c r="D102">
         <v>14</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="2">
         <v>43073</v>
       </c>
@@ -1836,8 +2457,14 @@
       <c r="D103">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="2">
         <v>43074</v>
       </c>
@@ -1850,8 +2477,14 @@
       <c r="D104">
         <v>14</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="2">
         <v>43075</v>
       </c>
@@ -1864,8 +2497,14 @@
       <c r="D105">
         <v>14</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="2">
         <v>43076</v>
       </c>
@@ -1878,8 +2517,14 @@
       <c r="D106">
         <v>14</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="2">
         <v>43077</v>
       </c>
@@ -1892,8 +2537,14 @@
       <c r="D107">
         <v>14</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="2">
         <v>43080</v>
       </c>
@@ -1906,8 +2557,14 @@
       <c r="D108">
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="2">
         <v>43081</v>
       </c>
@@ -1920,8 +2577,14 @@
       <c r="D109">
         <v>14</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="2">
         <v>43082</v>
       </c>
@@ -1934,8 +2597,14 @@
       <c r="D110">
         <v>14</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="2">
         <v>43083</v>
       </c>
@@ -1948,8 +2617,14 @@
       <c r="D111">
         <v>14</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="2">
         <v>43084</v>
       </c>
@@ -1962,8 +2637,14 @@
       <c r="D112">
         <v>14</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="2">
         <v>43087</v>
       </c>
@@ -1976,8 +2657,14 @@
       <c r="D113">
         <v>14</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="2">
         <v>43088</v>
       </c>
@@ -1990,8 +2677,14 @@
       <c r="D114">
         <v>15</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="2">
         <v>43089</v>
       </c>
@@ -2004,8 +2697,14 @@
       <c r="D115">
         <v>15</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="2">
         <v>43090</v>
       </c>
@@ -2018,8 +2717,14 @@
       <c r="D116">
         <v>15</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="2">
         <v>43091</v>
       </c>
@@ -2032,8 +2737,14 @@
       <c r="D117">
         <v>15</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="2">
         <v>43095</v>
       </c>
@@ -2046,8 +2757,14 @@
       <c r="D118">
         <v>14</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="2">
         <v>43096</v>
       </c>
@@ -2060,8 +2777,14 @@
       <c r="D119">
         <v>14</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="2">
         <v>43097</v>
       </c>
@@ -2074,8 +2797,14 @@
       <c r="D120">
         <v>14</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="2">
         <v>43098</v>
       </c>
@@ -2088,8 +2817,14 @@
       <c r="D121">
         <v>14</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="2">
         <v>43102</v>
       </c>
@@ -2102,8 +2837,14 @@
       <c r="D122">
         <v>14</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="2">
         <v>43103</v>
       </c>
@@ -2116,8 +2857,14 @@
       <c r="D123">
         <v>15.5625</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123">
+        <v>4.288683442388755</v>
+      </c>
+      <c r="F123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="2">
         <v>43104</v>
       </c>
@@ -2130,8 +2877,14 @@
       <c r="D124">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124">
+        <v>4.547037866629041</v>
+      </c>
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="2">
         <v>43105</v>
       </c>
@@ -2144,8 +2897,14 @@
       <c r="D125">
         <v>17</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125">
+        <v>4.684826892890527</v>
+      </c>
+      <c r="F125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="2">
         <v>43108</v>
       </c>
@@ -2158,8 +2917,14 @@
       <c r="D126">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126">
+        <v>4.822615919152013</v>
+      </c>
+      <c r="F126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="2">
         <v>43109</v>
       </c>
@@ -2172,8 +2937,14 @@
       <c r="D127">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127">
+        <v>4.822615919152013</v>
+      </c>
+      <c r="F127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="2">
         <v>43110</v>
       </c>
@@ -2186,8 +2957,14 @@
       <c r="D128">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128">
+        <v>4.822615919152013</v>
+      </c>
+      <c r="F128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <v>43111</v>
       </c>
@@ -2200,8 +2977,14 @@
       <c r="D129">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129">
+        <v>4.822615919152013</v>
+      </c>
+      <c r="F129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <v>43112</v>
       </c>
@@ -2214,8 +2997,14 @@
       <c r="D130">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130">
+        <v>4.822615919152013</v>
+      </c>
+      <c r="F130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <v>43116</v>
       </c>
@@ -2228,8 +3017,14 @@
       <c r="D131">
         <v>15</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="2">
         <v>43117</v>
       </c>
@@ -2242,8 +3037,14 @@
       <c r="D132">
         <v>15</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="2">
         <v>43118</v>
       </c>
@@ -2256,8 +3057,14 @@
       <c r="D133">
         <v>15</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="2">
         <v>43119</v>
       </c>
@@ -2270,8 +3077,14 @@
       <c r="D134">
         <v>15</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="2">
         <v>43122</v>
       </c>
@@ -2284,8 +3097,14 @@
       <c r="D135">
         <v>14.25</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135">
+        <v>3.926987248452354</v>
+      </c>
+      <c r="F135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="2">
         <v>43123</v>
       </c>
@@ -2298,8 +3117,14 @@
       <c r="D136">
         <v>13</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="2">
         <v>43124</v>
       </c>
@@ -2312,8 +3137,14 @@
       <c r="D137">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="2">
         <v>43125</v>
       </c>
@@ -2326,8 +3157,14 @@
       <c r="D138">
         <v>12</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="2">
         <v>43126</v>
       </c>
@@ -2340,8 +3177,14 @@
       <c r="D139">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139">
+        <v>3.100253090883437</v>
+      </c>
+      <c r="F139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="2">
         <v>43129</v>
       </c>
@@ -2354,8 +3197,14 @@
       <c r="D140">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140">
+        <v>3.100253090883437</v>
+      </c>
+      <c r="F140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="2">
         <v>43130</v>
       </c>
@@ -2368,8 +3217,14 @@
       <c r="D141">
         <v>11</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="2">
         <v>43131</v>
       </c>
@@ -2382,8 +3237,14 @@
       <c r="D142">
         <v>11</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="2">
         <v>43132</v>
       </c>
@@ -2396,8 +3257,14 @@
       <c r="D143">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="2">
         <v>43133</v>
       </c>
@@ -2410,8 +3277,14 @@
       <c r="D144">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="2">
         <v>43136</v>
       </c>
@@ -2424,8 +3297,14 @@
       <c r="D145">
         <v>12</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="2">
         <v>43137</v>
       </c>
@@ -2438,8 +3317,14 @@
       <c r="D146">
         <v>12.25</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146">
+        <v>3.375831143406409</v>
+      </c>
+      <c r="F146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="2">
         <v>43138</v>
       </c>
@@ -2452,8 +3337,14 @@
       <c r="D147">
         <v>12.25</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147">
+        <v>3.375831143406409</v>
+      </c>
+      <c r="F147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="2">
         <v>43139</v>
       </c>
@@ -2466,8 +3357,14 @@
       <c r="D148">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="2">
         <v>43140</v>
       </c>
@@ -2480,8 +3377,14 @@
       <c r="D149">
         <v>12.25</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149">
+        <v>3.375831143406409</v>
+      </c>
+      <c r="F149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="2">
         <v>43143</v>
       </c>
@@ -2494,8 +3397,14 @@
       <c r="D150">
         <v>12.25</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150">
+        <v>3.375831143406409</v>
+      </c>
+      <c r="F150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="2">
         <v>43144</v>
       </c>
@@ -2508,8 +3417,14 @@
       <c r="D151">
         <v>12</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="2">
         <v>43145</v>
       </c>
@@ -2522,8 +3437,14 @@
       <c r="D152">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152">
+        <v>3.100253090883437</v>
+      </c>
+      <c r="F152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="2">
         <v>43146</v>
       </c>
@@ -2536,8 +3457,14 @@
       <c r="D153">
         <v>11</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="2">
         <v>43147</v>
       </c>
@@ -2550,8 +3477,14 @@
       <c r="D154">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="2">
         <v>43151</v>
       </c>
@@ -2564,8 +3497,14 @@
       <c r="D155">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="2">
         <v>43152</v>
       </c>
@@ -2578,8 +3517,14 @@
       <c r="D156">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="2">
         <v>43153</v>
       </c>
@@ -2592,8 +3537,14 @@
       <c r="D157">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="2">
         <v>43154</v>
       </c>
@@ -2606,8 +3557,14 @@
       <c r="D158">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="2">
         <v>43157</v>
       </c>
@@ -2620,8 +3577,14 @@
       <c r="D159">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="2">
         <v>43158</v>
       </c>
@@ -2634,8 +3597,14 @@
       <c r="D160">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160">
+        <v>2.962464064621951</v>
+      </c>
+      <c r="F160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="2">
         <v>43159</v>
       </c>
@@ -2648,8 +3617,14 @@
       <c r="D161">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="2">
         <v>43160</v>
       </c>
@@ -2662,8 +3637,14 @@
       <c r="D162">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="2">
         <v>43161</v>
       </c>
@@ -2676,8 +3657,14 @@
       <c r="D163">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="2">
         <v>43164</v>
       </c>
@@ -2690,8 +3677,14 @@
       <c r="D164">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164">
+        <v>2.893569551491208</v>
+      </c>
+      <c r="F164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="2">
         <v>43165</v>
       </c>
@@ -2704,8 +3697,14 @@
       <c r="D165">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="2">
         <v>43171</v>
       </c>
@@ -2718,8 +3717,14 @@
       <c r="D166">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="2">
         <v>43172</v>
       </c>
@@ -2732,8 +3737,14 @@
       <c r="D167">
         <v>11</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="2">
         <v>43173</v>
       </c>
@@ -2746,8 +3757,14 @@
       <c r="D168">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168">
+        <v>2.893569551491208</v>
+      </c>
+      <c r="F168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="2">
         <v>43174</v>
       </c>
@@ -2760,8 +3777,14 @@
       <c r="D169">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169">
+        <v>2.893569551491208</v>
+      </c>
+      <c r="F169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="2">
         <v>43175</v>
       </c>
@@ -2774,8 +3797,14 @@
       <c r="D170">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170">
+        <v>2.893569551491208</v>
+      </c>
+      <c r="F170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="2">
         <v>43178</v>
       </c>
@@ -2788,8 +3817,14 @@
       <c r="D171">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="E171">
+        <v>2.893569551491208</v>
+      </c>
+      <c r="F171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="2">
         <v>43179</v>
       </c>
@@ -2802,8 +3837,14 @@
       <c r="D172">
         <v>11.75</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172">
+        <v>3.238042117144923</v>
+      </c>
+      <c r="F172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="2">
         <v>43180</v>
       </c>
@@ -2816,8 +3857,14 @@
       <c r="D173">
         <v>12</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="2">
         <v>43181</v>
       </c>
@@ -2830,8 +3877,14 @@
       <c r="D174">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="E174">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="2">
         <v>43182</v>
       </c>
@@ -2844,8 +3897,14 @@
       <c r="D175">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="E175">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="2">
         <v>43185</v>
       </c>
@@ -2858,8 +3917,14 @@
       <c r="D176">
         <v>13</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="2">
         <v>43186</v>
       </c>
@@ -2872,8 +3937,14 @@
       <c r="D177">
         <v>13</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="2">
         <v>43187</v>
       </c>
@@ -2886,8 +3957,14 @@
       <c r="D178">
         <v>13</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="2">
         <v>43188</v>
       </c>
@@ -2900,8 +3977,14 @@
       <c r="D179">
         <v>14</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="2">
         <v>43189</v>
       </c>
@@ -2914,8 +3997,14 @@
       <c r="D180">
         <v>14</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="2">
         <v>43192</v>
       </c>
@@ -2928,8 +4017,14 @@
       <c r="D181">
         <v>14</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="E181">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="2">
         <v>43193</v>
       </c>
@@ -2942,8 +4037,14 @@
       <c r="D182">
         <v>14</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="2">
         <v>43194</v>
       </c>
@@ -2956,8 +4057,14 @@
       <c r="D183">
         <v>14</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="E183">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="2">
         <v>43195</v>
       </c>
@@ -2970,8 +4077,14 @@
       <c r="D184">
         <v>15</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="E184">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="2">
         <v>43196</v>
       </c>
@@ -2984,8 +4097,14 @@
       <c r="D185">
         <v>15</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="E185">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="2">
         <v>43199</v>
       </c>
@@ -2998,8 +4117,14 @@
       <c r="D186">
         <v>12.125</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186">
+        <v>3.341383886841038</v>
+      </c>
+      <c r="F186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="2">
         <v>43200</v>
       </c>
@@ -3012,8 +4137,14 @@
       <c r="D187">
         <v>12.125</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="E187">
+        <v>3.341383886841038</v>
+      </c>
+      <c r="F187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="2">
         <v>43201</v>
       </c>
@@ -3026,8 +4157,14 @@
       <c r="D188">
         <v>11</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="E188">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="2">
         <v>43202</v>
       </c>
@@ -3040,8 +4177,14 @@
       <c r="D189">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189">
+        <v>2.617991498968236</v>
+      </c>
+      <c r="F189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="2">
         <v>43203</v>
       </c>
@@ -3054,8 +4197,14 @@
       <c r="D190">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190">
+        <v>2.066835393922291</v>
+      </c>
+      <c r="F190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="2">
         <v>43206</v>
       </c>
@@ -3068,8 +4217,14 @@
       <c r="D191">
         <v>9</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="2">
         <v>43207</v>
       </c>
@@ -3082,8 +4237,14 @@
       <c r="D192">
         <v>9</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="2">
         <v>43208</v>
       </c>
@@ -3096,8 +4257,14 @@
       <c r="D193">
         <v>9</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="2">
         <v>43209</v>
       </c>
@@ -3110,8 +4277,14 @@
       <c r="D194">
         <v>9</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="2">
         <v>43210</v>
       </c>
@@ -3124,8 +4297,14 @@
       <c r="D195">
         <v>9</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="2">
         <v>43397</v>
       </c>
@@ -3138,8 +4317,14 @@
       <c r="D196">
         <v>11</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="2">
         <v>43398</v>
       </c>
@@ -3152,8 +4337,14 @@
       <c r="D197">
         <v>11</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="2">
         <v>43399</v>
       </c>
@@ -3166,8 +4357,14 @@
       <c r="D198">
         <v>11</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="E198">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="2">
         <v>43402</v>
       </c>
@@ -3180,8 +4377,14 @@
       <c r="D199">
         <v>11</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="E199">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="2">
         <v>43403</v>
       </c>
@@ -3194,8 +4397,14 @@
       <c r="D200">
         <v>11</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="E200">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="2">
         <v>43404</v>
       </c>
@@ -3208,8 +4417,14 @@
       <c r="D201">
         <v>10</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="E201">
+        <v>2.755780525229722</v>
+      </c>
+      <c r="F201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="2">
         <v>43405</v>
       </c>
@@ -3222,8 +4437,14 @@
       <c r="D202">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="E202">
+        <v>2.342413446445264</v>
+      </c>
+      <c r="F202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="2">
         <v>43406</v>
       </c>
@@ -3236,8 +4457,14 @@
       <c r="D203">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="E203">
+        <v>2.342413446445264</v>
+      </c>
+      <c r="F203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="2">
         <v>43409</v>
       </c>
@@ -3250,8 +4477,14 @@
       <c r="D204">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="E204">
+        <v>2.342413446445264</v>
+      </c>
+      <c r="F204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="2">
         <v>43410</v>
       </c>
@@ -3264,8 +4497,14 @@
       <c r="D205">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="E205">
+        <v>2.342413446445264</v>
+      </c>
+      <c r="F205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="2">
         <v>43411</v>
       </c>
@@ -3278,8 +4517,14 @@
       <c r="D206">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="E206">
+        <v>2.342413446445264</v>
+      </c>
+      <c r="F206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="2">
         <v>43412</v>
       </c>
@@ -3292,8 +4537,14 @@
       <c r="D207">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="E207">
+        <v>2.342413446445264</v>
+      </c>
+      <c r="F207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="2">
         <v>43413</v>
       </c>
@@ -3306,8 +4557,14 @@
       <c r="D208">
         <v>9</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="E208">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="2">
         <v>43417</v>
       </c>
@@ -3320,8 +4577,14 @@
       <c r="D209">
         <v>14</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="E209">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="2">
         <v>43418</v>
       </c>
@@ -3334,8 +4597,14 @@
       <c r="D210">
         <v>14</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="E210">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="2">
         <v>43419</v>
       </c>
@@ -3348,8 +4617,14 @@
       <c r="D211">
         <v>16</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="E211">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="2">
         <v>43420</v>
       </c>
@@ -3362,8 +4637,14 @@
       <c r="D212">
         <v>16</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="E212">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F212" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="2">
         <v>43423</v>
       </c>
@@ -3376,8 +4657,14 @@
       <c r="D213">
         <v>18</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="E213">
+        <v>4.960404945413499</v>
+      </c>
+      <c r="F213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="2">
         <v>43424</v>
       </c>
@@ -3390,8 +4677,14 @@
       <c r="D214">
         <v>18</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="E214">
+        <v>4.960404945413499</v>
+      </c>
+      <c r="F214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="2">
         <v>43425</v>
       </c>
@@ -3404,8 +4697,14 @@
       <c r="D215">
         <v>18</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="E215">
+        <v>4.960404945413499</v>
+      </c>
+      <c r="F215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="2">
         <v>43427</v>
       </c>
@@ -3418,8 +4717,14 @@
       <c r="D216">
         <v>18</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="E216">
+        <v>4.960404945413499</v>
+      </c>
+      <c r="F216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="2">
         <v>43430</v>
       </c>
@@ -3432,8 +4737,14 @@
       <c r="D217">
         <v>20</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="E217">
+        <v>5.511561050459444</v>
+      </c>
+      <c r="F217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="2">
         <v>43431</v>
       </c>
@@ -3446,8 +4757,14 @@
       <c r="D218">
         <v>20</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="E218">
+        <v>5.511561050459444</v>
+      </c>
+      <c r="F218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" s="2">
         <v>43432</v>
       </c>
@@ -3460,8 +4777,14 @@
       <c r="D219">
         <v>22</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="E219">
+        <v>6.062717155505388</v>
+      </c>
+      <c r="F219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="2">
         <v>43433</v>
       </c>
@@ -3474,8 +4797,14 @@
       <c r="D220">
         <v>22</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="E220">
+        <v>6.062717155505388</v>
+      </c>
+      <c r="F220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="2">
         <v>43434</v>
       </c>
@@ -3488,8 +4817,14 @@
       <c r="D221">
         <v>22</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="E221">
+        <v>6.062717155505388</v>
+      </c>
+      <c r="F221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="2">
         <v>43437</v>
       </c>
@@ -3502,8 +4837,14 @@
       <c r="D222">
         <v>22</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="E222">
+        <v>6.062717155505388</v>
+      </c>
+      <c r="F222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="2">
         <v>43438</v>
       </c>
@@ -3516,8 +4857,14 @@
       <c r="D223">
         <v>24</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="E223">
+        <v>6.613873260551332</v>
+      </c>
+      <c r="F223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="2">
         <v>43439</v>
       </c>
@@ -3530,8 +4877,14 @@
       <c r="D224">
         <v>26</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="E224">
+        <v>7.165029365597277</v>
+      </c>
+      <c r="F224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="2">
         <v>43440</v>
       </c>
@@ -3544,8 +4897,14 @@
       <c r="D225">
         <v>26</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="E225">
+        <v>7.165029365597277</v>
+      </c>
+      <c r="F225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="2">
         <v>43441</v>
       </c>
@@ -3558,8 +4917,14 @@
       <c r="D226">
         <v>26</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="E226">
+        <v>7.165029365597277</v>
+      </c>
+      <c r="F226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" s="2">
         <v>43444</v>
       </c>
@@ -3572,8 +4937,14 @@
       <c r="D227">
         <v>26</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="E227">
+        <v>7.165029365597277</v>
+      </c>
+      <c r="F227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="2">
         <v>43445</v>
       </c>
@@ -3586,8 +4957,14 @@
       <c r="D228">
         <v>26</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="E228">
+        <v>7.165029365597277</v>
+      </c>
+      <c r="F228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="2">
         <v>43446</v>
       </c>
@@ -3600,8 +4977,14 @@
       <c r="D229">
         <v>27</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="E229">
+        <v>7.44060741812025</v>
+      </c>
+      <c r="F229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" s="2">
         <v>43447</v>
       </c>
@@ -3614,8 +4997,14 @@
       <c r="D230">
         <v>28</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="E230">
+        <v>7.716185470643222</v>
+      </c>
+      <c r="F230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="2">
         <v>43448</v>
       </c>
@@ -3628,8 +5017,14 @@
       <c r="D231">
         <v>28</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="E231">
+        <v>7.716185470643222</v>
+      </c>
+      <c r="F231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="2">
         <v>43451</v>
       </c>
@@ -3642,8 +5037,14 @@
       <c r="D232">
         <v>28</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="E232">
+        <v>7.716185470643222</v>
+      </c>
+      <c r="F232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" s="2">
         <v>43452</v>
       </c>
@@ -3656,8 +5057,14 @@
       <c r="D233">
         <v>28</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="E233">
+        <v>7.716185470643222</v>
+      </c>
+      <c r="F233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" s="2">
         <v>43453</v>
       </c>
@@ -3670,8 +5077,14 @@
       <c r="D234">
         <v>26</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
+      <c r="E234">
+        <v>7.165029365597277</v>
+      </c>
+      <c r="F234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="2">
         <v>43454</v>
       </c>
@@ -3684,8 +5097,14 @@
       <c r="D235">
         <v>26</v>
       </c>
-    </row>
-    <row r="236" spans="1:4">
+      <c r="E235">
+        <v>7.165029365597277</v>
+      </c>
+      <c r="F235" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="2">
         <v>43455</v>
       </c>
@@ -3698,8 +5117,14 @@
       <c r="D236">
         <v>26</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="E236">
+        <v>7.165029365597277</v>
+      </c>
+      <c r="F236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" s="2">
         <v>43460</v>
       </c>
@@ -3712,8 +5137,14 @@
       <c r="D237">
         <v>26</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="E237">
+        <v>7.165029365597277</v>
+      </c>
+      <c r="F237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="2">
         <v>43461</v>
       </c>
@@ -3726,8 +5157,14 @@
       <c r="D238">
         <v>24</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="E238">
+        <v>6.613873260551332</v>
+      </c>
+      <c r="F238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" s="2">
         <v>43462</v>
       </c>
@@ -3740,8 +5177,14 @@
       <c r="D239">
         <v>25</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="E239">
+        <v>6.889451313074304</v>
+      </c>
+      <c r="F239" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" s="2">
         <v>43465</v>
       </c>
@@ -3754,8 +5197,14 @@
       <c r="D240">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="E240">
+        <v>6.476084234289846</v>
+      </c>
+      <c r="F240" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="2">
         <v>43467</v>
       </c>
@@ -3768,8 +5217,14 @@
       <c r="D241">
         <v>21.2375</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="E241">
+        <v>5.852588890456622</v>
+      </c>
+      <c r="F241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="2">
         <v>43468</v>
       </c>
@@ -3782,8 +5237,14 @@
       <c r="D242">
         <v>21.2375</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
+      <c r="E242">
+        <v>5.852588890456622</v>
+      </c>
+      <c r="F242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" s="2">
         <v>43469</v>
       </c>
@@ -3796,8 +5257,14 @@
       <c r="D243">
         <v>21.2375</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="E243">
+        <v>5.852588890456622</v>
+      </c>
+      <c r="F243" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="2">
         <v>43472</v>
       </c>
@@ -3810,8 +5277,14 @@
       <c r="D244">
         <v>21.2375</v>
       </c>
-    </row>
-    <row r="245" spans="1:4">
+      <c r="E244">
+        <v>5.852588890456622</v>
+      </c>
+      <c r="F244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" s="2">
         <v>43473</v>
       </c>
@@ -3824,8 +5297,14 @@
       <c r="D245">
         <v>20</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
+      <c r="E245">
+        <v>5.511561050459444</v>
+      </c>
+      <c r="F245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" s="2">
         <v>43474</v>
       </c>
@@ -3838,8 +5317,14 @@
       <c r="D246">
         <v>20</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="E246">
+        <v>5.511561050459444</v>
+      </c>
+      <c r="F246" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" s="2">
         <v>43475</v>
       </c>
@@ -3852,8 +5337,14 @@
       <c r="D247">
         <v>20</v>
       </c>
-    </row>
-    <row r="248" spans="1:4">
+      <c r="E247">
+        <v>5.511561050459444</v>
+      </c>
+      <c r="F247" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="2">
         <v>43476</v>
       </c>
@@ -3866,8 +5357,14 @@
       <c r="D248">
         <v>21</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
+      <c r="E248">
+        <v>5.787139102982416</v>
+      </c>
+      <c r="F248" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="2">
         <v>43479</v>
       </c>
@@ -3880,8 +5377,14 @@
       <c r="D249">
         <v>21.7375</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="E249">
+        <v>5.990377916718108</v>
+      </c>
+      <c r="F249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" s="2">
         <v>43480</v>
       </c>
@@ -3894,8 +5397,14 @@
       <c r="D250">
         <v>20.7375</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
+      <c r="E250">
+        <v>5.714799864195136</v>
+      </c>
+      <c r="F250" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="2">
         <v>43481</v>
       </c>
@@ -3908,8 +5417,14 @@
       <c r="D251">
         <v>20.2375</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
+      <c r="E251">
+        <v>5.57701083793365</v>
+      </c>
+      <c r="F251" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="2">
         <v>43482</v>
       </c>
@@ -3922,8 +5437,14 @@
       <c r="D252">
         <v>19</v>
       </c>
-    </row>
-    <row r="253" spans="1:4">
+      <c r="E252">
+        <v>5.235982997936472</v>
+      </c>
+      <c r="F252" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="2">
         <v>43483</v>
       </c>
@@ -3936,8 +5457,14 @@
       <c r="D253">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="E253">
+        <v>5.098193971674985</v>
+      </c>
+      <c r="F253" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" s="2">
         <v>43487</v>
       </c>
@@ -3950,8 +5477,14 @@
       <c r="D254">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="255" spans="1:4">
+      <c r="E254">
+        <v>5.098193971674985</v>
+      </c>
+      <c r="F254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="2">
         <v>43488</v>
       </c>
@@ -3964,8 +5497,14 @@
       <c r="D255">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
+      <c r="E255">
+        <v>5.098193971674985</v>
+      </c>
+      <c r="F255" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="2">
         <v>43489</v>
       </c>
@@ -3978,8 +5517,14 @@
       <c r="D256">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="257" spans="1:4">
+      <c r="E256">
+        <v>5.098193971674985</v>
+      </c>
+      <c r="F256" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="2">
         <v>43490</v>
       </c>
@@ -3992,8 +5537,14 @@
       <c r="D257">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="E257">
+        <v>5.098193971674985</v>
+      </c>
+      <c r="F257" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="2">
         <v>43493</v>
       </c>
@@ -4006,8 +5557,14 @@
       <c r="D258">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="259" spans="1:4">
+      <c r="E258">
+        <v>5.098193971674985</v>
+      </c>
+      <c r="F258" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="2">
         <v>43494</v>
       </c>
@@ -4020,8 +5577,14 @@
       <c r="D259">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="260" spans="1:4">
+      <c r="E259">
+        <v>5.373772024197958</v>
+      </c>
+      <c r="F259" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" s="2">
         <v>43495</v>
       </c>
@@ -4034,8 +5597,14 @@
       <c r="D260">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="261" spans="1:4">
+      <c r="E260">
+        <v>5.373772024197958</v>
+      </c>
+      <c r="F260" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" s="2">
         <v>43496</v>
       </c>
@@ -4048,8 +5617,14 @@
       <c r="D261">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="262" spans="1:4">
+      <c r="E261">
+        <v>5.373772024197958</v>
+      </c>
+      <c r="F261" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" s="2">
         <v>43497</v>
       </c>
@@ -4062,8 +5637,14 @@
       <c r="D262">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="263" spans="1:4">
+      <c r="E262">
+        <v>5.373772024197958</v>
+      </c>
+      <c r="F262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" s="2">
         <v>43500</v>
       </c>
@@ -4076,8 +5657,14 @@
       <c r="D263">
         <v>19</v>
       </c>
-    </row>
-    <row r="264" spans="1:4">
+      <c r="E263">
+        <v>5.235982997936472</v>
+      </c>
+      <c r="F263" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" s="2">
         <v>43501</v>
       </c>
@@ -4090,8 +5677,14 @@
       <c r="D264">
         <v>19</v>
       </c>
-    </row>
-    <row r="265" spans="1:4">
+      <c r="E264">
+        <v>5.235982997936472</v>
+      </c>
+      <c r="F264" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" s="2">
         <v>43502</v>
       </c>
@@ -4104,8 +5697,14 @@
       <c r="D265">
         <v>20</v>
       </c>
-    </row>
-    <row r="266" spans="1:4">
+      <c r="E265">
+        <v>5.511561050459444</v>
+      </c>
+      <c r="F265" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" s="2">
         <v>43503</v>
       </c>
@@ -4118,8 +5717,14 @@
       <c r="D266">
         <v>20</v>
       </c>
-    </row>
-    <row r="267" spans="1:4">
+      <c r="E266">
+        <v>5.511561050459444</v>
+      </c>
+      <c r="F266" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" s="2">
         <v>43504</v>
       </c>
@@ -4132,8 +5737,14 @@
       <c r="D267">
         <v>20</v>
       </c>
-    </row>
-    <row r="268" spans="1:4">
+      <c r="E267">
+        <v>5.511561050459444</v>
+      </c>
+      <c r="F267" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" s="2">
         <v>43507</v>
       </c>
@@ -4146,8 +5757,14 @@
       <c r="D268">
         <v>18</v>
       </c>
-    </row>
-    <row r="269" spans="1:4">
+      <c r="E268">
+        <v>4.960404945413499</v>
+      </c>
+      <c r="F268" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" s="2">
         <v>43508</v>
       </c>
@@ -4160,8 +5777,14 @@
       <c r="D269">
         <v>16</v>
       </c>
-    </row>
-    <row r="270" spans="1:4">
+      <c r="E269">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F269" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" s="2">
         <v>43509</v>
       </c>
@@ -4174,8 +5797,14 @@
       <c r="D270">
         <v>14</v>
       </c>
-    </row>
-    <row r="271" spans="1:4">
+      <c r="E270">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F270" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" s="2">
         <v>43510</v>
       </c>
@@ -4188,8 +5817,14 @@
       <c r="D271">
         <v>15</v>
       </c>
-    </row>
-    <row r="272" spans="1:4">
+      <c r="E271">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F271" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" s="2">
         <v>43511</v>
       </c>
@@ -4202,8 +5837,14 @@
       <c r="D272">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="273" spans="1:4">
+      <c r="E272">
+        <v>3.720303709060125</v>
+      </c>
+      <c r="F272" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" s="2">
         <v>43515</v>
       </c>
@@ -4216,8 +5857,14 @@
       <c r="D273">
         <v>8</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
+      <c r="E273">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F273" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="2">
         <v>43516</v>
       </c>
@@ -4230,8 +5877,14 @@
       <c r="D274">
         <v>8</v>
       </c>
-    </row>
-    <row r="275" spans="1:4">
+      <c r="E274">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F274" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" s="2">
         <v>43517</v>
       </c>
@@ -4244,8 +5897,14 @@
       <c r="D275">
         <v>8</v>
       </c>
-    </row>
-    <row r="276" spans="1:4">
+      <c r="E275">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F275" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" s="2">
         <v>43518</v>
       </c>
@@ -4258,8 +5917,14 @@
       <c r="D276">
         <v>8</v>
       </c>
-    </row>
-    <row r="277" spans="1:4">
+      <c r="E276">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F276" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" s="2">
         <v>43521</v>
       </c>
@@ -4272,8 +5937,14 @@
       <c r="D277">
         <v>7</v>
       </c>
-    </row>
-    <row r="278" spans="1:4">
+      <c r="E277">
+        <v>1.929046367660805</v>
+      </c>
+      <c r="F277" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" s="2">
         <v>43522</v>
       </c>
@@ -4286,8 +5957,14 @@
       <c r="D278">
         <v>10</v>
       </c>
-    </row>
-    <row r="279" spans="1:4">
+      <c r="E278">
+        <v>2.755780525229722</v>
+      </c>
+      <c r="F278" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" s="2">
         <v>43523</v>
       </c>
@@ -4300,8 +5977,14 @@
       <c r="D279">
         <v>10</v>
       </c>
-    </row>
-    <row r="280" spans="1:4">
+      <c r="E279">
+        <v>2.755780525229722</v>
+      </c>
+      <c r="F279" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" s="2">
         <v>43524</v>
       </c>
@@ -4314,8 +5997,14 @@
       <c r="D280">
         <v>11</v>
       </c>
-    </row>
-    <row r="281" spans="1:4">
+      <c r="E280">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F280" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" s="2">
         <v>43525</v>
       </c>
@@ -4328,8 +6017,14 @@
       <c r="D281">
         <v>11</v>
       </c>
-    </row>
-    <row r="282" spans="1:4">
+      <c r="E281">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F281" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" s="2">
         <v>43528</v>
       </c>
@@ -4342,8 +6037,14 @@
       <c r="D282">
         <v>12</v>
       </c>
-    </row>
-    <row r="283" spans="1:4">
+      <c r="E282">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F282" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" s="2">
         <v>43529</v>
       </c>
@@ -4356,8 +6057,14 @@
       <c r="D283">
         <v>12</v>
       </c>
-    </row>
-    <row r="284" spans="1:4">
+      <c r="E283">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F283" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" s="2">
         <v>43530</v>
       </c>
@@ -4370,8 +6077,14 @@
       <c r="D284">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="285" spans="1:4">
+      <c r="E284">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F284" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" s="2">
         <v>43531</v>
       </c>
@@ -4384,8 +6097,14 @@
       <c r="D285">
         <v>13</v>
       </c>
-    </row>
-    <row r="286" spans="1:4">
+      <c r="E285">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F285" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" s="2">
         <v>43532</v>
       </c>
@@ -4398,8 +6117,14 @@
       <c r="D286">
         <v>13</v>
       </c>
-    </row>
-    <row r="287" spans="1:4">
+      <c r="E286">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F286" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" s="2">
         <v>43535</v>
       </c>
@@ -4412,8 +6137,14 @@
       <c r="D287">
         <v>13</v>
       </c>
-    </row>
-    <row r="288" spans="1:4">
+      <c r="E287">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F287" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" s="2">
         <v>43536</v>
       </c>
@@ -4426,8 +6157,14 @@
       <c r="D288">
         <v>13</v>
       </c>
-    </row>
-    <row r="289" spans="1:4">
+      <c r="E288">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F288" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" s="2">
         <v>43537</v>
       </c>
@@ -4440,8 +6177,14 @@
       <c r="D289">
         <v>13</v>
       </c>
-    </row>
-    <row r="290" spans="1:4">
+      <c r="E289">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F289" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" s="2">
         <v>43538</v>
       </c>
@@ -4454,8 +6197,14 @@
       <c r="D290">
         <v>13</v>
       </c>
-    </row>
-    <row r="291" spans="1:4">
+      <c r="E290">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F290" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" s="2">
         <v>43539</v>
       </c>
@@ -4468,8 +6217,14 @@
       <c r="D291">
         <v>13</v>
       </c>
-    </row>
-    <row r="292" spans="1:4">
+      <c r="E291">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F291" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" s="2">
         <v>43542</v>
       </c>
@@ -4482,8 +6237,14 @@
       <c r="D292">
         <v>13</v>
       </c>
-    </row>
-    <row r="293" spans="1:4">
+      <c r="E292">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F292" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" s="2">
         <v>43543</v>
       </c>
@@ -4496,8 +6257,14 @@
       <c r="D293">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="294" spans="1:4">
+      <c r="E293">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F293" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294" s="2">
         <v>43544</v>
       </c>
@@ -4510,8 +6277,14 @@
       <c r="D294">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="295" spans="1:4">
+      <c r="E294">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F294" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" s="2">
         <v>43545</v>
       </c>
@@ -4524,8 +6297,14 @@
       <c r="D295">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="296" spans="1:4">
+      <c r="E295">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F295" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" s="2">
         <v>43546</v>
       </c>
@@ -4538,8 +6317,14 @@
       <c r="D296">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="297" spans="1:4">
+      <c r="E296">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F296" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297" s="2">
         <v>43549</v>
       </c>
@@ -4552,8 +6337,14 @@
       <c r="D297">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="298" spans="1:4">
+      <c r="E297">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F297" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" s="2">
         <v>43550</v>
       </c>
@@ -4566,8 +6357,14 @@
       <c r="D298">
         <v>13</v>
       </c>
-    </row>
-    <row r="299" spans="1:4">
+      <c r="E298">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F298" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" s="2">
         <v>43551</v>
       </c>
@@ -4580,8 +6377,14 @@
       <c r="D299">
         <v>13</v>
       </c>
-    </row>
-    <row r="300" spans="1:4">
+      <c r="E299">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F299" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300" s="2">
         <v>43552</v>
       </c>
@@ -4594,8 +6397,14 @@
       <c r="D300">
         <v>13</v>
       </c>
-    </row>
-    <row r="301" spans="1:4">
+      <c r="E300">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F300" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301" s="2">
         <v>43553</v>
       </c>
@@ -4608,8 +6417,14 @@
       <c r="D301">
         <v>13</v>
       </c>
-    </row>
-    <row r="302" spans="1:4">
+      <c r="E301">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F301" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302" s="2">
         <v>43556</v>
       </c>
@@ -4622,8 +6437,14 @@
       <c r="D302">
         <v>12.0625</v>
       </c>
-    </row>
-    <row r="303" spans="1:4">
+      <c r="E302">
+        <v>3.324160258558352</v>
+      </c>
+      <c r="F302" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303" s="2">
         <v>43557</v>
       </c>
@@ -4636,8 +6457,14 @@
       <c r="D303">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="304" spans="1:4">
+      <c r="E303">
+        <v>2.893569551491208</v>
+      </c>
+      <c r="F303" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304" s="2">
         <v>43558</v>
       </c>
@@ -4650,8 +6477,14 @@
       <c r="D304">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="305" spans="1:4">
+      <c r="E304">
+        <v>2.893569551491208</v>
+      </c>
+      <c r="F304" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305" s="2">
         <v>43559</v>
       </c>
@@ -4664,8 +6497,14 @@
       <c r="D305">
         <v>9</v>
       </c>
-    </row>
-    <row r="306" spans="1:4">
+      <c r="E305">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F305" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306" s="2">
         <v>43560</v>
       </c>
@@ -4678,8 +6517,14 @@
       <c r="D306">
         <v>8</v>
       </c>
-    </row>
-    <row r="307" spans="1:4">
+      <c r="E306">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F306" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307" s="2">
         <v>43563</v>
       </c>
@@ -4692,8 +6537,14 @@
       <c r="D307">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="308" spans="1:4">
+      <c r="E307">
+        <v>2.066835393922291</v>
+      </c>
+      <c r="F307" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308" s="2">
         <v>43564</v>
       </c>
@@ -4706,8 +6557,14 @@
       <c r="D308">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="309" spans="1:4">
+      <c r="E308">
+        <v>2.066835393922291</v>
+      </c>
+      <c r="F308" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309" s="2">
         <v>43565</v>
       </c>
@@ -4720,8 +6577,14 @@
       <c r="D309">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="310" spans="1:4">
+      <c r="E309">
+        <v>2.066835393922291</v>
+      </c>
+      <c r="F309" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310" s="2">
         <v>43774</v>
       </c>
@@ -4734,8 +6597,14 @@
       <c r="D310">
         <v>14</v>
       </c>
-    </row>
-    <row r="311" spans="1:4">
+      <c r="E310">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F310" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311" s="2">
         <v>43775</v>
       </c>
@@ -4748,8 +6617,14 @@
       <c r="D311">
         <v>14</v>
       </c>
-    </row>
-    <row r="312" spans="1:4">
+      <c r="E311">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F311" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312" s="2">
         <v>43776</v>
       </c>
@@ -4762,8 +6637,14 @@
       <c r="D312">
         <v>14</v>
       </c>
-    </row>
-    <row r="313" spans="1:4">
+      <c r="E312">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F312" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313" s="2">
         <v>43777</v>
       </c>
@@ -4776,8 +6657,14 @@
       <c r="D313">
         <v>14</v>
       </c>
-    </row>
-    <row r="314" spans="1:4">
+      <c r="E313">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F313" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314" s="2">
         <v>43781</v>
       </c>
@@ -4790,8 +6677,14 @@
       <c r="D314">
         <v>16</v>
       </c>
-    </row>
-    <row r="315" spans="1:4">
+      <c r="E314">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F314" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315" s="2">
         <v>43782</v>
       </c>
@@ -4804,8 +6697,14 @@
       <c r="D315">
         <v>15</v>
       </c>
-    </row>
-    <row r="316" spans="1:4">
+      <c r="E315">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F315" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316" s="2">
         <v>43783</v>
       </c>
@@ -4818,8 +6717,14 @@
       <c r="D316">
         <v>15</v>
       </c>
-    </row>
-    <row r="317" spans="1:4">
+      <c r="E316">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F316" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317" s="2">
         <v>43784</v>
       </c>
@@ -4832,8 +6737,14 @@
       <c r="D317">
         <v>15</v>
       </c>
-    </row>
-    <row r="318" spans="1:4">
+      <c r="E317">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F317" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318" s="2">
         <v>43787</v>
       </c>
@@ -4846,8 +6757,14 @@
       <c r="D318">
         <v>15</v>
       </c>
-    </row>
-    <row r="319" spans="1:4">
+      <c r="E318">
+        <v>4.133670787844583</v>
+      </c>
+      <c r="F318" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319" s="2">
         <v>43788</v>
       </c>
@@ -4860,8 +6777,14 @@
       <c r="D319">
         <v>16</v>
       </c>
-    </row>
-    <row r="320" spans="1:4">
+      <c r="E319">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F319" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320" s="2">
         <v>43789</v>
       </c>
@@ -4874,8 +6797,14 @@
       <c r="D320">
         <v>16</v>
       </c>
-    </row>
-    <row r="321" spans="1:4">
+      <c r="E320">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F320" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
       <c r="A321" s="2">
         <v>43790</v>
       </c>
@@ -4888,8 +6817,14 @@
       <c r="D321">
         <v>16</v>
       </c>
-    </row>
-    <row r="322" spans="1:4">
+      <c r="E321">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F321" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
       <c r="A322" s="2">
         <v>43791</v>
       </c>
@@ -4902,8 +6837,14 @@
       <c r="D322">
         <v>18</v>
       </c>
-    </row>
-    <row r="323" spans="1:4">
+      <c r="E322">
+        <v>4.960404945413499</v>
+      </c>
+      <c r="F322" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323" s="2">
         <v>43794</v>
       </c>
@@ -4916,8 +6857,14 @@
       <c r="D323">
         <v>18</v>
       </c>
-    </row>
-    <row r="324" spans="1:4">
+      <c r="E323">
+        <v>4.960404945413499</v>
+      </c>
+      <c r="F323" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
       <c r="A324" s="2">
         <v>43795</v>
       </c>
@@ -4930,8 +6877,14 @@
       <c r="D324">
         <v>18</v>
       </c>
-    </row>
-    <row r="325" spans="1:4">
+      <c r="E324">
+        <v>4.960404945413499</v>
+      </c>
+      <c r="F324" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
       <c r="A325" s="2">
         <v>43796</v>
       </c>
@@ -4944,8 +6897,14 @@
       <c r="D325">
         <v>18</v>
       </c>
-    </row>
-    <row r="326" spans="1:4">
+      <c r="E325">
+        <v>4.960404945413499</v>
+      </c>
+      <c r="F325" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
       <c r="A326" s="2">
         <v>43798</v>
       </c>
@@ -4958,8 +6917,14 @@
       <c r="D326">
         <v>19</v>
       </c>
-    </row>
-    <row r="327" spans="1:4">
+      <c r="E326">
+        <v>5.235982997936472</v>
+      </c>
+      <c r="F326" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
       <c r="A327" s="2">
         <v>43801</v>
       </c>
@@ -4972,8 +6937,14 @@
       <c r="D327">
         <v>24</v>
       </c>
-    </row>
-    <row r="328" spans="1:4">
+      <c r="E327">
+        <v>6.613873260551332</v>
+      </c>
+      <c r="F327" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
       <c r="A328" s="2">
         <v>43802</v>
       </c>
@@ -4986,8 +6957,14 @@
       <c r="D328">
         <v>24</v>
       </c>
-    </row>
-    <row r="329" spans="1:4">
+      <c r="E328">
+        <v>6.613873260551332</v>
+      </c>
+      <c r="F328" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
       <c r="A329" s="2">
         <v>43803</v>
       </c>
@@ -5000,8 +6977,14 @@
       <c r="D329">
         <v>24</v>
       </c>
-    </row>
-    <row r="330" spans="1:4">
+      <c r="E329">
+        <v>6.613873260551332</v>
+      </c>
+      <c r="F329" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
       <c r="A330" s="2">
         <v>43804</v>
       </c>
@@ -5014,8 +6997,14 @@
       <c r="D330">
         <v>26</v>
       </c>
-    </row>
-    <row r="331" spans="1:4">
+      <c r="E330">
+        <v>7.165029365597277</v>
+      </c>
+      <c r="F330" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
       <c r="A331" s="2">
         <v>43805</v>
       </c>
@@ -5028,8 +7017,14 @@
       <c r="D331">
         <v>26</v>
       </c>
-    </row>
-    <row r="332" spans="1:4">
+      <c r="E331">
+        <v>7.165029365597277</v>
+      </c>
+      <c r="F331" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
       <c r="A332" s="2">
         <v>43808</v>
       </c>
@@ -5042,8 +7037,14 @@
       <c r="D332">
         <v>26</v>
       </c>
-    </row>
-    <row r="333" spans="1:4">
+      <c r="E332">
+        <v>7.165029365597277</v>
+      </c>
+      <c r="F332" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
       <c r="A333" s="2">
         <v>43809</v>
       </c>
@@ -5056,8 +7057,14 @@
       <c r="D333">
         <v>28</v>
       </c>
-    </row>
-    <row r="334" spans="1:4">
+      <c r="E333">
+        <v>7.716185470643222</v>
+      </c>
+      <c r="F333" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
       <c r="A334" s="2">
         <v>43810</v>
       </c>
@@ -5070,8 +7077,14 @@
       <c r="D334">
         <v>28</v>
       </c>
-    </row>
-    <row r="335" spans="1:4">
+      <c r="E334">
+        <v>7.716185470643222</v>
+      </c>
+      <c r="F334" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
       <c r="A335" s="2">
         <v>43811</v>
       </c>
@@ -5084,8 +7097,14 @@
       <c r="D335">
         <v>28</v>
       </c>
-    </row>
-    <row r="336" spans="1:4">
+      <c r="E335">
+        <v>7.716185470643222</v>
+      </c>
+      <c r="F335" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
       <c r="A336" s="2">
         <v>43812</v>
       </c>
@@ -5098,8 +7117,14 @@
       <c r="D336">
         <v>28</v>
       </c>
-    </row>
-    <row r="337" spans="1:4">
+      <c r="E336">
+        <v>7.716185470643222</v>
+      </c>
+      <c r="F336" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
       <c r="A337" s="2">
         <v>43815</v>
       </c>
@@ -5112,8 +7137,14 @@
       <c r="D337">
         <v>26</v>
       </c>
-    </row>
-    <row r="338" spans="1:4">
+      <c r="E337">
+        <v>7.165029365597277</v>
+      </c>
+      <c r="F337" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
       <c r="A338" s="2">
         <v>43816</v>
       </c>
@@ -5126,8 +7157,14 @@
       <c r="D338">
         <v>24</v>
       </c>
-    </row>
-    <row r="339" spans="1:4">
+      <c r="E338">
+        <v>6.613873260551332</v>
+      </c>
+      <c r="F338" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
       <c r="A339" s="2">
         <v>43817</v>
       </c>
@@ -5140,8 +7177,14 @@
       <c r="D339">
         <v>22</v>
       </c>
-    </row>
-    <row r="340" spans="1:4">
+      <c r="E339">
+        <v>6.062717155505388</v>
+      </c>
+      <c r="F339" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
       <c r="A340" s="2">
         <v>43818</v>
       </c>
@@ -5154,8 +7197,14 @@
       <c r="D340">
         <v>20</v>
       </c>
-    </row>
-    <row r="341" spans="1:4">
+      <c r="E340">
+        <v>5.511561050459444</v>
+      </c>
+      <c r="F340" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
       <c r="A341" s="2">
         <v>43819</v>
       </c>
@@ -5168,8 +7217,14 @@
       <c r="D341">
         <v>18</v>
       </c>
-    </row>
-    <row r="342" spans="1:4">
+      <c r="E341">
+        <v>4.960404945413499</v>
+      </c>
+      <c r="F341" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
       <c r="A342" s="2">
         <v>43822</v>
       </c>
@@ -5182,8 +7237,14 @@
       <c r="D342">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="343" spans="1:4">
+      <c r="E342">
+        <v>5.64935007672093</v>
+      </c>
+      <c r="F342" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
       <c r="A343" s="2">
         <v>43825</v>
       </c>
@@ -5196,8 +7257,14 @@
       <c r="D343">
         <v>16</v>
       </c>
-    </row>
-    <row r="344" spans="1:4">
+      <c r="E343">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F343" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
       <c r="A344" s="2">
         <v>43826</v>
       </c>
@@ -5210,8 +7277,14 @@
       <c r="D344">
         <v>16</v>
       </c>
-    </row>
-    <row r="345" spans="1:4">
+      <c r="E344">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F344" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
       <c r="A345" s="2">
         <v>43829</v>
       </c>
@@ -5224,8 +7297,14 @@
       <c r="D345">
         <v>12</v>
       </c>
-    </row>
-    <row r="346" spans="1:4">
+      <c r="E345">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F345" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
       <c r="A346" s="2">
         <v>43830</v>
       </c>
@@ -5238,8 +7317,14 @@
       <c r="D346">
         <v>10</v>
       </c>
-    </row>
-    <row r="347" spans="1:4">
+      <c r="E346">
+        <v>2.755780525229722</v>
+      </c>
+      <c r="F346" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
       <c r="A347" s="2">
         <v>43832</v>
       </c>
@@ -5252,8 +7337,14 @@
       <c r="D347">
         <v>11.7375</v>
       </c>
-    </row>
-    <row r="348" spans="1:4">
+      <c r="E347">
+        <v>3.234597391488386</v>
+      </c>
+      <c r="F347" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
       <c r="A348" s="2">
         <v>43833</v>
       </c>
@@ -5266,8 +7357,14 @@
       <c r="D348">
         <v>11.7375</v>
       </c>
-    </row>
-    <row r="349" spans="1:4">
+      <c r="E348">
+        <v>3.234597391488386</v>
+      </c>
+      <c r="F348" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
       <c r="A349" s="2">
         <v>43836</v>
       </c>
@@ -5280,8 +7377,14 @@
       <c r="D349">
         <v>12</v>
       </c>
-    </row>
-    <row r="350" spans="1:4">
+      <c r="E349">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F349" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
       <c r="A350" s="2">
         <v>43837</v>
       </c>
@@ -5294,8 +7397,14 @@
       <c r="D350">
         <v>12</v>
       </c>
-    </row>
-    <row r="351" spans="1:4">
+      <c r="E350">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F350" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
       <c r="A351" s="2">
         <v>43838</v>
       </c>
@@ -5308,8 +7417,14 @@
       <c r="D351">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="352" spans="1:4">
+      <c r="E351">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F351" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
       <c r="A352" s="2">
         <v>43839</v>
       </c>
@@ -5322,8 +7437,14 @@
       <c r="D352">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="353" spans="1:4">
+      <c r="E352">
+        <v>3.444725656537152</v>
+      </c>
+      <c r="F352" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
       <c r="A353" s="2">
         <v>43840</v>
       </c>
@@ -5336,8 +7457,14 @@
       <c r="D353">
         <v>13</v>
       </c>
-    </row>
-    <row r="354" spans="1:4">
+      <c r="E353">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F353" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
       <c r="A354" s="2">
         <v>43843</v>
       </c>
@@ -5350,8 +7477,14 @@
       <c r="D354">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="355" spans="1:4">
+      <c r="E354">
+        <v>3.720303709060125</v>
+      </c>
+      <c r="F354" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
       <c r="A355" s="2">
         <v>43844</v>
       </c>
@@ -5364,8 +7497,14 @@
       <c r="D355">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="356" spans="1:4">
+      <c r="E355">
+        <v>3.720303709060125</v>
+      </c>
+      <c r="F355" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
       <c r="A356" s="2">
         <v>43845</v>
       </c>
@@ -5378,8 +7517,14 @@
       <c r="D356">
         <v>14</v>
       </c>
-    </row>
-    <row r="357" spans="1:4">
+      <c r="E356">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F356" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
       <c r="A357" s="2">
         <v>43846</v>
       </c>
@@ -5392,8 +7537,14 @@
       <c r="D357">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="358" spans="1:4">
+      <c r="E357">
+        <v>3.995881761583097</v>
+      </c>
+      <c r="F357" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
       <c r="A358" s="2">
         <v>43847</v>
       </c>
@@ -5406,8 +7557,14 @@
       <c r="D358">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="359" spans="1:4">
+      <c r="E358">
+        <v>3.995881761583097</v>
+      </c>
+      <c r="F358" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
       <c r="A359" s="2">
         <v>43851</v>
       </c>
@@ -5420,8 +7577,14 @@
       <c r="D359">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="360" spans="1:4">
+      <c r="E359">
+        <v>3.995881761583097</v>
+      </c>
+      <c r="F359" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
       <c r="A360" s="2">
         <v>43852</v>
       </c>
@@ -5434,8 +7597,14 @@
       <c r="D360">
         <v>16</v>
       </c>
-    </row>
-    <row r="361" spans="1:4">
+      <c r="E360">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F360" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
       <c r="A361" s="2">
         <v>43853</v>
       </c>
@@ -5448,8 +7617,14 @@
       <c r="D361">
         <v>16</v>
       </c>
-    </row>
-    <row r="362" spans="1:4">
+      <c r="E361">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F361" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
       <c r="A362" s="2">
         <v>43854</v>
       </c>
@@ -5462,8 +7637,14 @@
       <c r="D362">
         <v>16</v>
       </c>
-    </row>
-    <row r="363" spans="1:4">
+      <c r="E362">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F362" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
       <c r="A363" s="2">
         <v>43857</v>
       </c>
@@ -5476,8 +7657,14 @@
       <c r="D363">
         <v>16</v>
       </c>
-    </row>
-    <row r="364" spans="1:4">
+      <c r="E363">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F363" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
       <c r="A364" s="2">
         <v>43858</v>
       </c>
@@ -5490,8 +7677,14 @@
       <c r="D364">
         <v>16</v>
       </c>
-    </row>
-    <row r="365" spans="1:4">
+      <c r="E364">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F364" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
       <c r="A365" s="2">
         <v>43859</v>
       </c>
@@ -5504,8 +7697,14 @@
       <c r="D365">
         <v>16</v>
       </c>
-    </row>
-    <row r="366" spans="1:4">
+      <c r="E365">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F365" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
       <c r="A366" s="2">
         <v>43860</v>
       </c>
@@ -5518,8 +7717,14 @@
       <c r="D366">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="367" spans="1:4">
+      <c r="E366">
+        <v>4.547037866629041</v>
+      </c>
+      <c r="F366" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
       <c r="A367" s="2">
         <v>43861</v>
       </c>
@@ -5532,8 +7737,14 @@
       <c r="D367">
         <v>16</v>
       </c>
-    </row>
-    <row r="368" spans="1:4">
+      <c r="E367">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F367" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
       <c r="A368" s="2">
         <v>43864</v>
       </c>
@@ -5546,8 +7757,14 @@
       <c r="D368">
         <v>16</v>
       </c>
-    </row>
-    <row r="369" spans="1:4">
+      <c r="E368">
+        <v>4.409248840367555</v>
+      </c>
+      <c r="F368" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
       <c r="A369" s="2">
         <v>43865</v>
       </c>
@@ -5560,8 +7777,14 @@
       <c r="D369">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="370" spans="1:4">
+      <c r="E369">
+        <v>4.271459814106069</v>
+      </c>
+      <c r="F369" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
       <c r="A370" s="2">
         <v>43866</v>
       </c>
@@ -5574,8 +7797,14 @@
       <c r="D370">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="371" spans="1:4">
+      <c r="E370">
+        <v>4.271459814106069</v>
+      </c>
+      <c r="F370" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
       <c r="A371" s="2">
         <v>43867</v>
       </c>
@@ -5588,8 +7817,14 @@
       <c r="D371">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="372" spans="1:4">
+      <c r="E371">
+        <v>4.271459814106069</v>
+      </c>
+      <c r="F371" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
       <c r="A372" s="2">
         <v>43868</v>
       </c>
@@ -5602,8 +7837,14 @@
       <c r="D372">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="373" spans="1:4">
+      <c r="E372">
+        <v>4.271459814106069</v>
+      </c>
+      <c r="F372" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
       <c r="A373" s="2">
         <v>43871</v>
       </c>
@@ -5616,8 +7857,14 @@
       <c r="D373">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="374" spans="1:4">
+      <c r="E373">
+        <v>4.271459814106069</v>
+      </c>
+      <c r="F373" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
       <c r="A374" s="2">
         <v>43872</v>
       </c>
@@ -5630,8 +7877,14 @@
       <c r="D374">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="375" spans="1:4">
+      <c r="E374">
+        <v>4.271459814106069</v>
+      </c>
+      <c r="F374" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
       <c r="A375" s="2">
         <v>43873</v>
       </c>
@@ -5644,8 +7897,14 @@
       <c r="D375">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="376" spans="1:4">
+      <c r="E375">
+        <v>4.271459814106069</v>
+      </c>
+      <c r="F375" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
       <c r="A376" s="2">
         <v>43874</v>
       </c>
@@ -5658,8 +7917,14 @@
       <c r="D376">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="377" spans="1:4">
+      <c r="E376">
+        <v>4.271459814106069</v>
+      </c>
+      <c r="F376" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
       <c r="A377" s="2">
         <v>43875</v>
       </c>
@@ -5672,8 +7937,14 @@
       <c r="D377">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="378" spans="1:4">
+      <c r="E377">
+        <v>3.995881761583097</v>
+      </c>
+      <c r="F377" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
       <c r="A378" s="2">
         <v>43879</v>
       </c>
@@ -5686,8 +7957,14 @@
       <c r="D378">
         <v>13</v>
       </c>
-    </row>
-    <row r="379" spans="1:4">
+      <c r="E378">
+        <v>3.582514682798638</v>
+      </c>
+      <c r="F378" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
       <c r="A379" s="2">
         <v>43880</v>
       </c>
@@ -5700,8 +7977,14 @@
       <c r="D379">
         <v>11</v>
       </c>
-    </row>
-    <row r="380" spans="1:4">
+      <c r="E379">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F379" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
       <c r="A380" s="2">
         <v>43881</v>
       </c>
@@ -5714,8 +7997,14 @@
       <c r="D380">
         <v>10</v>
       </c>
-    </row>
-    <row r="381" spans="1:4">
+      <c r="E380">
+        <v>2.755780525229722</v>
+      </c>
+      <c r="F380" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
       <c r="A381" s="2">
         <v>43882</v>
       </c>
@@ -5728,8 +8017,14 @@
       <c r="D381">
         <v>9</v>
       </c>
-    </row>
-    <row r="382" spans="1:4">
+      <c r="E381">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F381" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
       <c r="A382" s="2">
         <v>43885</v>
       </c>
@@ -5742,8 +8037,14 @@
       <c r="D382">
         <v>9</v>
       </c>
-    </row>
-    <row r="383" spans="1:4">
+      <c r="E382">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F382" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
       <c r="A383" s="2">
         <v>43886</v>
       </c>
@@ -5756,8 +8057,14 @@
       <c r="D383">
         <v>9</v>
       </c>
-    </row>
-    <row r="384" spans="1:4">
+      <c r="E383">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F383" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
       <c r="A384" s="2">
         <v>43887</v>
       </c>
@@ -5770,8 +8077,14 @@
       <c r="D384">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="385" spans="1:4">
+      <c r="E384">
+        <v>2.617991498968236</v>
+      </c>
+      <c r="F384" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
       <c r="A385" s="2">
         <v>43888</v>
       </c>
@@ -5784,8 +8097,14 @@
       <c r="D385">
         <v>9.75</v>
       </c>
-    </row>
-    <row r="386" spans="1:4">
+      <c r="E385">
+        <v>2.686886012098979</v>
+      </c>
+      <c r="F385" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
       <c r="A386" s="2">
         <v>43889</v>
       </c>
@@ -5798,8 +8117,14 @@
       <c r="D386">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="387" spans="1:4">
+      <c r="E386">
+        <v>2.824675038360465</v>
+      </c>
+      <c r="F386" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
       <c r="A387" s="2">
         <v>43892</v>
       </c>
@@ -5812,8 +8137,14 @@
       <c r="D387">
         <v>11</v>
       </c>
-    </row>
-    <row r="388" spans="1:4">
+      <c r="E387">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F387" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
       <c r="A388" s="2">
         <v>43893</v>
       </c>
@@ -5826,8 +8157,14 @@
       <c r="D388">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="389" spans="1:4">
+      <c r="E388">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F388" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
       <c r="A389" s="2">
         <v>43894</v>
       </c>
@@ -5840,8 +8177,14 @@
       <c r="D389">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="390" spans="1:4">
+      <c r="E389">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F389" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
       <c r="A390" s="2">
         <v>43895</v>
       </c>
@@ -5854,8 +8197,14 @@
       <c r="D390">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="391" spans="1:4">
+      <c r="E390">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F390" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
       <c r="A391" s="2">
         <v>43896</v>
       </c>
@@ -5868,8 +8217,14 @@
       <c r="D391">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="392" spans="1:4">
+      <c r="E391">
+        <v>3.16914760401418</v>
+      </c>
+      <c r="F391" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
       <c r="A392" s="2">
         <v>43899</v>
       </c>
@@ -5882,8 +8237,14 @@
       <c r="D392">
         <v>13.75</v>
       </c>
-    </row>
-    <row r="393" spans="1:4">
+      <c r="E392">
+        <v>3.789198222190868</v>
+      </c>
+      <c r="F392" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
       <c r="A393" s="2">
         <v>43900</v>
       </c>
@@ -5896,8 +8257,14 @@
       <c r="D393">
         <v>13.75</v>
       </c>
-    </row>
-    <row r="394" spans="1:4">
+      <c r="E393">
+        <v>3.789198222190868</v>
+      </c>
+      <c r="F393" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
       <c r="A394" s="2">
         <v>43901</v>
       </c>
@@ -5910,8 +8277,14 @@
       <c r="D394">
         <v>13.75</v>
       </c>
-    </row>
-    <row r="395" spans="1:4">
+      <c r="E394">
+        <v>3.789198222190868</v>
+      </c>
+      <c r="F394" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
       <c r="A395" s="2">
         <v>43902</v>
       </c>
@@ -5924,8 +8297,14 @@
       <c r="D395">
         <v>13.75</v>
       </c>
-    </row>
-    <row r="396" spans="1:4">
+      <c r="E395">
+        <v>3.789198222190868</v>
+      </c>
+      <c r="F395" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
       <c r="A396" s="2">
         <v>43903</v>
       </c>
@@ -5938,8 +8317,14 @@
       <c r="D396">
         <v>13.75</v>
       </c>
-    </row>
-    <row r="397" spans="1:4">
+      <c r="E396">
+        <v>3.789198222190868</v>
+      </c>
+      <c r="F396" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
       <c r="A397" s="2">
         <v>43906</v>
       </c>
@@ -5952,8 +8337,14 @@
       <c r="D397">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="398" spans="1:4">
+      <c r="E397">
+        <v>3.995881761583097</v>
+      </c>
+      <c r="F397" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
       <c r="A398" s="2">
         <v>43907</v>
       </c>
@@ -5966,8 +8357,14 @@
       <c r="D398">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="399" spans="1:4">
+      <c r="E398">
+        <v>3.995881761583097</v>
+      </c>
+      <c r="F398" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
       <c r="A399" s="2">
         <v>43908</v>
       </c>
@@ -5980,8 +8377,14 @@
       <c r="D399">
         <v>14</v>
       </c>
-    </row>
-    <row r="400" spans="1:4">
+      <c r="E399">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F399" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
       <c r="A400" s="2">
         <v>43909</v>
       </c>
@@ -5994,8 +8397,14 @@
       <c r="D400">
         <v>14</v>
       </c>
-    </row>
-    <row r="401" spans="1:4">
+      <c r="E400">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F400" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
       <c r="A401" s="2">
         <v>43910</v>
       </c>
@@ -6008,8 +8417,14 @@
       <c r="D401">
         <v>14</v>
       </c>
-    </row>
-    <row r="402" spans="1:4">
+      <c r="E401">
+        <v>3.858092735321611</v>
+      </c>
+      <c r="F401" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
       <c r="A402" s="2">
         <v>43913</v>
       </c>
@@ -6022,8 +8437,14 @@
       <c r="D402">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="403" spans="1:4">
+      <c r="E402">
+        <v>3.995881761583097</v>
+      </c>
+      <c r="F402" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
       <c r="A403" s="2">
         <v>43914</v>
       </c>
@@ -6036,8 +8457,14 @@
       <c r="D403">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="404" spans="1:4">
+      <c r="E403">
+        <v>3.995881761583097</v>
+      </c>
+      <c r="F403" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
       <c r="A404" s="2">
         <v>43915</v>
       </c>
@@ -6050,8 +8477,14 @@
       <c r="D404">
         <v>13.25</v>
       </c>
-    </row>
-    <row r="405" spans="1:4">
+      <c r="E404">
+        <v>3.651409195929381</v>
+      </c>
+      <c r="F404" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
       <c r="A405" s="2">
         <v>43916</v>
       </c>
@@ -6064,8 +8497,14 @@
       <c r="D405">
         <v>12</v>
       </c>
-    </row>
-    <row r="406" spans="1:4">
+      <c r="E405">
+        <v>3.306936630275666</v>
+      </c>
+      <c r="F405" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
       <c r="A406" s="2">
         <v>43917</v>
       </c>
@@ -6078,8 +8517,14 @@
       <c r="D406">
         <v>11</v>
       </c>
-    </row>
-    <row r="407" spans="1:4">
+      <c r="E406">
+        <v>3.031358577752694</v>
+      </c>
+      <c r="F406" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
       <c r="A407" s="2">
         <v>43920</v>
       </c>
@@ -6092,8 +8537,14 @@
       <c r="D407">
         <v>8.75</v>
       </c>
-    </row>
-    <row r="408" spans="1:4">
+      <c r="E407">
+        <v>2.411307959576007</v>
+      </c>
+      <c r="F407" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
       <c r="A408" s="2">
         <v>43921</v>
       </c>
@@ -6106,8 +8557,14 @@
       <c r="D408">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="409" spans="1:4">
+      <c r="E408">
+        <v>2.342413446445264</v>
+      </c>
+      <c r="F408" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
       <c r="A409" s="2">
         <v>43922</v>
       </c>
@@ -6120,8 +8577,14 @@
       <c r="D409">
         <v>8</v>
       </c>
-    </row>
-    <row r="410" spans="1:4">
+      <c r="E409">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F409" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
       <c r="A410" s="2">
         <v>43923</v>
       </c>
@@ -6134,8 +8597,14 @@
       <c r="D410">
         <v>8</v>
       </c>
-    </row>
-    <row r="411" spans="1:4">
+      <c r="E410">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F410" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
       <c r="A411" s="2">
         <v>43924</v>
       </c>
@@ -6148,8 +8617,14 @@
       <c r="D411">
         <v>8</v>
       </c>
-    </row>
-    <row r="412" spans="1:4">
+      <c r="E411">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F411" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
       <c r="A412" s="2">
         <v>43927</v>
       </c>
@@ -6162,8 +8637,14 @@
       <c r="D412">
         <v>8</v>
       </c>
-    </row>
-    <row r="413" spans="1:4">
+      <c r="E412">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F412" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
       <c r="A413" s="2">
         <v>43928</v>
       </c>
@@ -6176,8 +8657,14 @@
       <c r="D413">
         <v>8</v>
       </c>
-    </row>
-    <row r="414" spans="1:4">
+      <c r="E413">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F413" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
       <c r="A414" s="2">
         <v>43929</v>
       </c>
@@ -6190,8 +8677,14 @@
       <c r="D414">
         <v>8</v>
       </c>
-    </row>
-    <row r="415" spans="1:4">
+      <c r="E414">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F414" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
       <c r="A415" s="2">
         <v>43930</v>
       </c>
@@ -6204,8 +8697,14 @@
       <c r="D415">
         <v>8</v>
       </c>
-    </row>
-    <row r="416" spans="1:4">
+      <c r="E415">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F415" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
       <c r="A416" s="2">
         <v>43931</v>
       </c>
@@ -6218,8 +8717,14 @@
       <c r="D416">
         <v>8</v>
       </c>
-    </row>
-    <row r="417" spans="1:4">
+      <c r="E416">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F416" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
       <c r="A417" s="2">
         <v>43934</v>
       </c>
@@ -6232,8 +8737,14 @@
       <c r="D417">
         <v>9</v>
       </c>
-    </row>
-    <row r="418" spans="1:4">
+      <c r="E417">
+        <v>2.48020247270675</v>
+      </c>
+      <c r="F417" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
       <c r="A418" s="2">
         <v>43935</v>
       </c>
@@ -6246,8 +8757,14 @@
       <c r="D418">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="419" spans="1:4">
+      <c r="E418">
+        <v>2.342413446445264</v>
+      </c>
+      <c r="F418" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
       <c r="A419" s="2">
         <v>43936</v>
       </c>
@@ -6260,8 +8777,14 @@
       <c r="D419">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="420" spans="1:4">
+      <c r="E419">
+        <v>2.342413446445264</v>
+      </c>
+      <c r="F419" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
       <c r="A420" s="2">
         <v>43937</v>
       </c>
@@ -6274,8 +8797,14 @@
       <c r="D420">
         <v>8</v>
       </c>
-    </row>
-    <row r="421" spans="1:4">
+      <c r="E420">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F420" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
       <c r="A421" s="2">
         <v>43938</v>
       </c>
@@ -6288,8 +8817,14 @@
       <c r="D421">
         <v>8</v>
       </c>
-    </row>
-    <row r="422" spans="1:4">
+      <c r="E421">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F421" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
       <c r="A422" s="2">
         <v>43941</v>
       </c>
@@ -6302,8 +8837,14 @@
       <c r="D422">
         <v>8</v>
       </c>
-    </row>
-    <row r="423" spans="1:4">
+      <c r="E422">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F422" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
       <c r="A423" s="2">
         <v>43942</v>
       </c>
@@ -6316,8 +8857,14 @@
       <c r="D423">
         <v>8</v>
       </c>
-    </row>
-    <row r="424" spans="1:4">
+      <c r="E423">
+        <v>2.204624420183777</v>
+      </c>
+      <c r="F423" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
       <c r="A424" s="2">
         <v>43943</v>
       </c>
@@ -6330,8 +8877,14 @@
       <c r="D424">
         <v>7</v>
       </c>
-    </row>
-    <row r="425" spans="1:4">
+      <c r="E424">
+        <v>1.929046367660805</v>
+      </c>
+      <c r="F424" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
       <c r="A425" s="2">
         <v>43944</v>
       </c>
@@ -6344,8 +8897,14 @@
       <c r="D425">
         <v>7</v>
       </c>
-    </row>
-    <row r="426" spans="1:4">
+      <c r="E425">
+        <v>1.929046367660805</v>
+      </c>
+      <c r="F425" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
       <c r="A426" s="2">
         <v>43945</v>
       </c>
@@ -6358,8 +8917,14 @@
       <c r="D426">
         <v>7</v>
       </c>
-    </row>
-    <row r="427" spans="1:4">
+      <c r="E426">
+        <v>1.929046367660805</v>
+      </c>
+      <c r="F426" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
       <c r="A427" s="2">
         <v>43948</v>
       </c>
@@ -6372,8 +8937,14 @@
       <c r="D427">
         <v>7</v>
       </c>
-    </row>
-    <row r="428" spans="1:4">
+      <c r="E427">
+        <v>1.929046367660805</v>
+      </c>
+      <c r="F427" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
       <c r="A428" s="2">
         <v>43949</v>
       </c>
@@ -6385,6 +8956,32 @@
       </c>
       <c r="D428">
         <v>7</v>
+      </c>
+      <c r="E428">
+        <v>1.929046367660805</v>
+      </c>
+      <c r="F428" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B429">
+        <v>6</v>
+      </c>
+      <c r="C429">
+        <v>8</v>
+      </c>
+      <c r="D429">
+        <v>7</v>
+      </c>
+      <c r="E429">
+        <v>1.929046367660805</v>
+      </c>
+      <c r="F429" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
